--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/onesignal.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/onesignal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>class_name</t>
   </si>
@@ -40,160 +40,22 @@
     <t>labelAPI</t>
   </si>
   <si>
-    <t>com.onesignal.OneSignal</t>
-  </si>
-  <si>
-    <t>enableVibrate</t>
-  </si>
-  <si>
-    <t>setEmail</t>
-  </si>
-  <si>
-    <t>logoutEmail</t>
-  </si>
-  <si>
-    <t>postNotification</t>
-  </si>
-  <si>
-    <t>removeTriggerForKey</t>
-  </si>
-  <si>
     <t>getTriggerValueForKey</t>
   </si>
   <si>
-    <t>pauseInAppMessages</t>
-  </si>
-  <si>
     <t>getTags</t>
   </si>
   <si>
-    <t>sendTag</t>
-  </si>
-  <si>
-    <t>sendTags</t>
-  </si>
-  <si>
-    <t>deleteTag</t>
-  </si>
-  <si>
-    <t>deleteTags</t>
-  </si>
-  <si>
-    <t>setLocationShared</t>
-  </si>
-  <si>
-    <t>setExternalUserId</t>
-  </si>
-  <si>
-    <t>removeExternalUserId</t>
-  </si>
-  <si>
-    <t>setSubscription</t>
-  </si>
-  <si>
-    <t>When user receives notification, vibrate device less</t>
-  </si>
-  <si>
-    <t>Set user's email. Creates a new user record for the email address. Use sendTag if you want to update a push user record with the email.</t>
-  </si>
-  <si>
-    <t>Log user out to dissociate email from device</t>
-  </si>
-  <si>
-    <t>Send or schedule a notification to a OneSignal Player ID.</t>
-  </si>
-  <si>
-    <t>Removes a list of triggers based on a collection of keys, may show an In-App Message if its triggers conditions were met.</t>
-  </si>
-  <si>
     <t>Gets a trigger value for a provided trigger key.</t>
   </si>
   <si>
-    <t>Allows you to temporarily pause all In App Messages.</t>
-  </si>
-  <si>
     <t>View Tags from current device record.</t>
   </si>
   <si>
-    <t>Add a single Data Tag to current device record.</t>
-  </si>
-  <si>
-    <t>Add multiple Data Tags to current device record.</t>
-  </si>
-  <si>
-    <t>Delete a Tag from current device record.</t>
-  </si>
-  <si>
-    <t>Delete multiple Tags from current device record.</t>
-  </si>
-  <si>
-    <t>Disable or Enable SDK location collection. See Handling Personal Data.</t>
-  </si>
-  <si>
-    <t>Allows you to use your own system's user ID's to send push notifications to your users. To tie a user to a given user ID, you can use this method.</t>
-  </si>
-  <si>
-    <t>Removes whatever was set as the current user's external user ID.</t>
-  </si>
-  <si>
-    <t>Disable OneSignal from sending notifications to current device.</t>
-  </si>
-  <si>
-    <t>Set user's email. Creates a new user record for the email address. Use send tag if you want to update a push user record with the email.</t>
-  </si>
-  <si>
-    <t>Send or schedule a notification to a one signal Player ID.</t>
-  </si>
-  <si>
-    <t>Add a single Data Tag to current device record.</t>
-  </si>
-  <si>
-    <t>Add multiple Data Tags to current device record.</t>
-  </si>
-  <si>
-    <t>Disable or Enable SDK location collection. See Handling Personal Data.</t>
-  </si>
-  <si>
-    <t>Disable one signal from sending notifications to current device.</t>
-  </si>
-  <si>
-    <t>{'device', 'vibrate'}</t>
-  </si>
-  <si>
-    <t>{'the email address', "Set user's email", 'the email'}</t>
-  </si>
-  <si>
-    <t>{'email'}</t>
-  </si>
-  <si>
-    <t>{'a one signal Player ID'}</t>
-  </si>
-  <si>
-    <t>{'keys'}</t>
-  </si>
-  <si>
     <t>{'a provided trigger key'}</t>
   </si>
   <si>
-    <t>{'App Messages'}</t>
-  </si>
-  <si>
     <t>{'current device record'}</t>
-  </si>
-  <si>
-    <t>{'current device record', 'multiple Data Tags'}</t>
-  </si>
-  <si>
-    <t>{'Personal Data', 'SDK location collection'}</t>
-  </si>
-  <si>
-    <t>{"your own system's user ID", 'a given user ID', 'a user'}</t>
-  </si>
-  <si>
-    <t>{"the current user's external user ID"}</t>
-  </si>
-  <si>
-    <t>{'current device'}</t>
   </si>
 </sst>
 </file>
@@ -551,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,278 +446,37 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
